--- a/P1/out/Week-of-02-27-2023/0004_Week-of-02-27-2023.xlsx
+++ b/P1/out/Week-of-02-27-2023/0004_Week-of-02-27-2023.xlsx
@@ -28,13 +28,13 @@
     <x:t>Note</x:t>
   </x:si>
   <x:si>
+    <x:t>Aniseed Syrup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chai</x:t>
+  </x:si>
+  <x:si>
     <x:t>Chang</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chai</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aniseed Syrup</x:t>
   </x:si>
   <x:si>
     <x:t>Chartreuse verte</x:t>
@@ -425,7 +425,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -447,7 +447,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
